--- a/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,49%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>87,64; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>88,0; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>86,18; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>91,13; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>93,34; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>89,34; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>97,34; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>97,51; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>93,23; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>98,06; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>95,35; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>94,55; 99,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>98,87; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,09</t>
+          <t>96,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>84,48; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>96,46; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>90,67; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>93,23; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>92,92; 99,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>94,72; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>98,08; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>97,92; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>97,1; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>94,02; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>98,6; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>97,23; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>96,23; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>98,57; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>68,61; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>92,07; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>96,58; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>95,22; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>84,89; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>96,96; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>96,91; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>92,02; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>92,05; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>94,45; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>95,54; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>97,58; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,08%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,64%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>93,07; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>98,29; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>97,87; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>93,4; 99,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>96,78; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>97,54; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>95,12; 99,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>98,22; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>98,85; 100</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>92,14; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>98,06; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>98,47; 100</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>93,14; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>98,44; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>98,47; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>94,85; 99,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>99,13; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>99,23; 100</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,82%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>95,81; 98,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>99,61; 100</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>96,77; 98,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>98,9; 99,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>96,8; 98,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>99,16; 99,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>99,41; 100,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>97,41; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>97,92; 100</t>
+          <t>96,86; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,6; 100</t>
+          <t>97,98; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>99,16; 100</t>
+          <t>98,76; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B11-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,64; 100,0</t>
+          <t>87,4; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,0; 100,0</t>
+          <t>87,15; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,18; 100,0</t>
+          <t>83,21; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,13; 100,0</t>
+          <t>91,11; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,14 +726,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,34; 100,0</t>
+          <t>92,57; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,34; 100,0</t>
+          <t>90,32; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,23; 100,0</t>
+          <t>93,53; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,35; 100,0</t>
+          <t>95,25; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,37</t>
+          <t>93,2; 99,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,14 +836,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,69; 100,0</t>
+          <t>96,68; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,48; 100,0</t>
+          <t>84,61; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,54; 100,0</t>
+          <t>91,71; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90,67; 100,0</t>
+          <t>92,28; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>93,23; 100,0</t>
+          <t>92,09; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>92,92; 99,2</t>
+          <t>92,05; 99,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,72; 100,0</t>
+          <t>94,91; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,7 +1031,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94,02; 100,0</t>
+          <t>93,45; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,23; 100,0</t>
+          <t>96,21; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>68,61; 100,0</t>
+          <t>70,45; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1155,7 +1156,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,89; 100,0</t>
+          <t>86,87; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1250,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92,02; 100,0</t>
+          <t>90,22; 100,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,05; 100,0</t>
+          <t>92,0; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>94,45; 100,0</t>
+          <t>94,04; 100,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,54; 100,0</t>
+          <t>96,05; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,07; 100,0</t>
+          <t>92,98; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,4; 99,23</t>
+          <t>93,51; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,78; 100,0</t>
+          <t>96,83; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,12; 99,18</t>
+          <t>95,08; 99,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>98,22; 100,0</t>
+          <t>97,85; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,14; 100,0</t>
+          <t>92,45; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1470,7 +1471,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>93,14; 100,0</t>
+          <t>92,52; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>94,85; 99,45</t>
+          <t>94,71; 99,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1565,12 +1566,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>95,81; 98,85</t>
+          <t>95,96; 98,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,96; 100,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1580,7 +1581,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>96,77; 98,99</t>
+          <t>96,67; 98,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1590,22 +1591,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>98,96; 100,0</t>
+          <t>98,86; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,64</t>
+          <t>96,89; 98,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>99,16; 99,92</t>
+          <t>99,24; 99,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>99,41; 100,0</t>
+          <t>99,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la tensión arterial  fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33088</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>29032</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37457</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>44335</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34645</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70163</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>77423</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>63677</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29313; 33540</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31116; 33088</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27124; 29032</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33499; 38439</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42365; 44335</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>29636; 35618</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>65577; 71979</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>75419; 77423</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59847; 64650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52020</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>80010</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80443</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>88107</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>107061</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>115975</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>140127</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>187072</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196419</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>47923; 53058</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77882; 80010</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78442; 80443</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>84245; 90070</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>104988; 107061</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>111502; 117064</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>133395; 142238</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>184961; 187072</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>190956; 197508</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41512</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58026</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>48748</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64761</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>76836</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52169</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106273</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>134861</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>100917</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36866; 43574</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>54110; 59003</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47021; 48748</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60694; 65773</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>71719; 77878</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50047; 52169</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100655; 108477</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>129912; 136881</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98983; 100917</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47563</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>68375</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66957</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>95960</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82267</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>114520</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>164336</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143661</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45813; 47563</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66230; 68375</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>59613; 61394</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>63377; 67821</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>94024; 95960</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79984; 82267</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>111006; 115384</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162302; 164336</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>141605; 143661</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16092</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>33103</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22973</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24898</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>57874</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>41245</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40990</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>90977</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64218</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12647; 17951</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31067; 33103</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21152; 22973</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22924; 24898</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>55897; 57874</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39275; 41245</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37223; 42849</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>88950; 90977</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>62267; 64218</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>42084</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>62777</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>34412</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>51665</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>61426</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>45375</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>93749</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>124203</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>79787</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40214; 42084</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>60839; 62777</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>32683; 34412</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>47539; 52695</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>57417; 62413</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43311; 45375</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>89129; 94779</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>120246; 125190</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>77852; 79787</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86276</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>120839</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>96073</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>115750</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>158035</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>90892</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>202026</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>278874</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>186965</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>81788; 87962</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>118771; 120839</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>94028; 96073</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>110926; 118630</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>153991; 159037</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>88660; 90892</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>196431; 204811</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>273856; 279876</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>184817; 186965</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>85079</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110293</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>125153</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>100837</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>133726</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>152295</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>185917</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>244019</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>277448</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>80416; 86982</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>108158; 110293</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>123233; 125153</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>95319; 103024</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>131641; 133726</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>149959; 152295</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>179947; 188946</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>241900; 244019</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>275310; 277448</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1198</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>403333</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>566511</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>498229</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>550433</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>735255</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>614864</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>953765</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1301764</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1113092</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>396056; 408064</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>561596; 567488</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>496300; 498229</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>542661; 555510</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>730171; 737300</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>609914; 616926</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>943786; 961040</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1295800; 1304772</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1108323; 1115154</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>